--- a/Images_and_Data/Data/CT8_golf_green_data.xlsx
+++ b/Images_and_Data/Data/CT8_golf_green_data.xlsx
@@ -413,81 +413,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>0.25</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E2">
         <v>2.1</v>
       </c>
       <c r="F2">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="G2">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H2">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="I2">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="J2">
-        <v>2.8</v>
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>6.2</v>
+      </c>
+      <c r="L2">
+        <v>6.1</v>
+      </c>
+      <c r="M2">
+        <v>5.7</v>
+      </c>
+      <c r="N2">
+        <v>5.05</v>
+      </c>
+      <c r="O2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P2">
+        <v>4.3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C3">
         <v>1.2</v>
@@ -499,27 +535,45 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F3">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="G3">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="H3">
-        <v>3.6</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="I3">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="J3">
-        <v>2.9</v>
+        <v>5.9</v>
+      </c>
+      <c r="K3">
+        <v>6.05</v>
+      </c>
+      <c r="L3">
+        <v>5.95</v>
+      </c>
+      <c r="M3">
+        <v>5.65</v>
+      </c>
+      <c r="N3">
+        <v>5.15</v>
+      </c>
+      <c r="O3">
+        <v>5.05</v>
+      </c>
+      <c r="P3">
+        <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C4">
         <v>1.8</v>
@@ -531,24 +585,42 @@
         <v>2.6</v>
       </c>
       <c r="F4">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G4">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H4">
-        <v>3.65</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I4">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>2.95</v>
+        <v>5.3</v>
+      </c>
+      <c r="K4">
+        <v>5.6</v>
+      </c>
+      <c r="L4">
+        <v>5.55</v>
+      </c>
+      <c r="M4">
+        <v>5.3</v>
+      </c>
+      <c r="N4">
+        <v>5.15</v>
+      </c>
+      <c r="O4">
+        <v>5.05</v>
+      </c>
+      <c r="P4">
+        <v>5.05</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2.1</v>
@@ -563,370 +635,286 @@
         <v>2.9</v>
       </c>
       <c r="F5">
+        <v>3.2</v>
+      </c>
+      <c r="G5">
+        <v>3.7</v>
+      </c>
+      <c r="H5">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I5">
+        <v>4.7</v>
+      </c>
+      <c r="J5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5.05</v>
+      </c>
+      <c r="M5">
+        <v>4.95</v>
+      </c>
+      <c r="N5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O5">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2.6</v>
+      </c>
+      <c r="C6">
+        <v>2.9</v>
+      </c>
+      <c r="D6">
+        <v>3.05</v>
+      </c>
+      <c r="E6">
         <v>3.1</v>
-      </c>
-      <c r="G5">
-        <v>3.25</v>
-      </c>
-      <c r="H5">
-        <v>3.7</v>
-      </c>
-      <c r="I5">
-        <v>3.35</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>2.95</v>
-      </c>
-      <c r="C6">
-        <v>3.05</v>
-      </c>
-      <c r="D6">
-        <v>3.1</v>
-      </c>
-      <c r="E6">
-        <v>3.2</v>
       </c>
       <c r="F6">
         <v>3.3</v>
       </c>
       <c r="G6">
+        <v>3.6</v>
+      </c>
+      <c r="H6">
+        <v>3.9</v>
+      </c>
+      <c r="I6">
+        <v>4.2</v>
+      </c>
+      <c r="J6">
+        <v>4.45</v>
+      </c>
+      <c r="K6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M6">
+        <v>4.55</v>
+      </c>
+      <c r="N6">
+        <v>4.5</v>
+      </c>
+      <c r="O6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P6">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3.1</v>
+      </c>
+      <c r="C7">
+        <v>3.15</v>
+      </c>
+      <c r="D7">
+        <v>3.2</v>
+      </c>
+      <c r="E7">
+        <v>3.25</v>
+      </c>
+      <c r="F7">
         <v>3.4</v>
-      </c>
-      <c r="H6">
-        <v>3.65</v>
-      </c>
-      <c r="I6">
-        <v>3.3</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>3.8</v>
-      </c>
-      <c r="C7">
-        <v>3.9</v>
-      </c>
-      <c r="D7">
-        <v>3.8</v>
-      </c>
-      <c r="E7">
-        <v>3.7</v>
-      </c>
-      <c r="F7">
-        <v>3.6</v>
       </c>
       <c r="G7">
         <v>3.5</v>
       </c>
       <c r="H7">
+        <v>3.8</v>
+      </c>
+      <c r="I7">
+        <v>3.95</v>
+      </c>
+      <c r="J7">
+        <v>4.05</v>
+      </c>
+      <c r="K7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4.05</v>
+      </c>
+      <c r="N7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O7">
+        <v>4.2</v>
+      </c>
+      <c r="P7">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>3.6</v>
       </c>
-      <c r="I7">
-        <v>3.3</v>
-      </c>
-      <c r="J7">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>4.8</v>
-      </c>
       <c r="C8">
-        <v>4.6500000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="D8">
-        <v>4.4000000000000004</v>
+        <v>3.65</v>
       </c>
       <c r="E8">
-        <v>4.1500000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="F8">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="G8">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H8">
         <v>3.55</v>
       </c>
       <c r="I8">
+        <v>3.5</v>
+      </c>
+      <c r="J8">
+        <v>3.7</v>
+      </c>
+      <c r="K8">
+        <v>3.7</v>
+      </c>
+      <c r="L8">
+        <v>3.7</v>
+      </c>
+      <c r="M8">
+        <v>3.75</v>
+      </c>
+      <c r="N8">
+        <v>3.8</v>
+      </c>
+      <c r="O8">
+        <v>3.9</v>
+      </c>
+      <c r="P8">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3.2</v>
+      </c>
+      <c r="C9">
+        <v>3.3</v>
+      </c>
+      <c r="D9">
+        <v>3.3</v>
+      </c>
+      <c r="E9">
+        <v>3.35</v>
+      </c>
+      <c r="F9">
+        <v>3.3</v>
+      </c>
+      <c r="G9">
+        <v>3.3</v>
+      </c>
+      <c r="H9">
         <v>3.25</v>
-      </c>
-      <c r="J8">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>5.5</v>
-      </c>
-      <c r="C9">
-        <v>5.2</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>4.7</v>
-      </c>
-      <c r="F9">
-        <v>4.2</v>
-      </c>
-      <c r="G9">
-        <v>3.95</v>
-      </c>
-      <c r="H9">
-        <v>3.5</v>
       </c>
       <c r="I9">
         <v>3.1</v>
       </c>
       <c r="J9">
+        <v>3.2</v>
+      </c>
+      <c r="K9">
+        <v>3.15</v>
+      </c>
+      <c r="L9">
+        <v>3.2</v>
+      </c>
+      <c r="M9">
+        <v>3.25</v>
+      </c>
+      <c r="N9">
+        <v>3.4</v>
+      </c>
+      <c r="O9">
+        <v>3.7</v>
+      </c>
+      <c r="P9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2.8</v>
+      </c>
+      <c r="C10">
+        <v>2.9</v>
+      </c>
+      <c r="D10">
+        <v>2.95</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3.05</v>
+      </c>
+      <c r="H10">
+        <v>2.95</v>
+      </c>
+      <c r="I10">
         <v>2.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>5.9</v>
-      </c>
-      <c r="D10">
-        <v>5.3</v>
-      </c>
-      <c r="E10">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F10">
-        <v>4.45</v>
-      </c>
-      <c r="G10">
-        <v>4.05</v>
-      </c>
-      <c r="H10">
-        <v>3.7</v>
-      </c>
-      <c r="I10">
-        <v>3.2</v>
       </c>
       <c r="J10">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>6.2</v>
-      </c>
-      <c r="C11">
-        <v>6.05</v>
-      </c>
-      <c r="D11">
-        <v>5.6</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>3.7</v>
-      </c>
-      <c r="I11">
-        <v>3.15</v>
-      </c>
-      <c r="J11">
+      <c r="K10">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>6.1</v>
-      </c>
-      <c r="C12">
-        <v>5.95</v>
-      </c>
-      <c r="D12">
-        <v>5.55</v>
-      </c>
-      <c r="E12">
-        <v>5.05</v>
-      </c>
-      <c r="F12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>3.7</v>
-      </c>
-      <c r="I12">
-        <v>3.2</v>
-      </c>
-      <c r="J12">
+      <c r="L10">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>5.7</v>
-      </c>
-      <c r="C13">
-        <v>5.65</v>
-      </c>
-      <c r="D13">
-        <v>5.3</v>
-      </c>
-      <c r="E13">
-        <v>4.95</v>
-      </c>
-      <c r="F13">
-        <v>4.55</v>
-      </c>
-      <c r="G13">
-        <v>4.05</v>
-      </c>
-      <c r="H13">
-        <v>3.75</v>
-      </c>
-      <c r="I13">
-        <v>3.25</v>
-      </c>
-      <c r="J13">
+      <c r="M10">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>5.05</v>
-      </c>
-      <c r="C14">
-        <v>5.15</v>
-      </c>
-      <c r="D14">
-        <v>5.15</v>
-      </c>
-      <c r="E14">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F14">
-        <v>4.5</v>
-      </c>
-      <c r="G14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H14">
-        <v>3.8</v>
-      </c>
-      <c r="I14">
+      <c r="N10">
+        <v>3.1</v>
+      </c>
+      <c r="O10">
         <v>3.4</v>
       </c>
-      <c r="J14">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C15">
-        <v>5.05</v>
-      </c>
-      <c r="D15">
-        <v>5.05</v>
-      </c>
-      <c r="E15">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="F15">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G15">
-        <v>4.2</v>
-      </c>
-      <c r="H15">
-        <v>3.9</v>
-      </c>
-      <c r="I15">
-        <v>3.7</v>
-      </c>
-      <c r="J15">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>4.3</v>
-      </c>
-      <c r="C16">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="D16">
-        <v>5.05</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G16">
-        <v>4.55</v>
-      </c>
-      <c r="H16">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="I16">
-        <v>3.9</v>
-      </c>
-      <c r="J16">
+      <c r="P10">
         <v>3.8</v>
       </c>
     </row>

--- a/Images_and_Data/Data/CT8_golf_green_data.xlsx
+++ b/Images_and_Data/Data/CT8_golf_green_data.xlsx
@@ -343,432 +343,432 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A23" sqref="A1:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.25</v>
+        <v>1.9</v>
       </c>
       <c r="B1">
-        <v>0.8</v>
+        <v>6.08</v>
       </c>
       <c r="C1">
-        <v>1.3</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="D1">
-        <v>2.1</v>
+        <v>15.959999999999999</v>
       </c>
       <c r="E1">
-        <v>2.95</v>
+        <v>22.42</v>
       </c>
       <c r="F1">
-        <v>3.8</v>
+        <v>28.88</v>
       </c>
       <c r="G1">
-        <v>4.8</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="H1">
-        <v>5.5</v>
+        <v>41.8</v>
       </c>
       <c r="I1">
-        <v>6</v>
+        <v>45.599999999999994</v>
       </c>
       <c r="J1">
-        <v>6.2</v>
+        <v>47.12</v>
       </c>
       <c r="K1">
-        <v>6.1</v>
+        <v>46.359999999999992</v>
       </c>
       <c r="L1">
-        <v>5.7</v>
+        <v>43.32</v>
       </c>
       <c r="M1">
-        <v>5.05</v>
+        <v>38.379999999999995</v>
       </c>
       <c r="N1">
-        <v>4.5999999999999996</v>
+        <v>34.959999999999994</v>
       </c>
       <c r="O1">
-        <v>4.3</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.9</v>
+        <v>6.84</v>
       </c>
       <c r="B2">
-        <v>1.2</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="C2">
-        <v>1.8</v>
+        <v>13.68</v>
       </c>
       <c r="D2">
-        <v>2.2999999999999998</v>
+        <v>17.479999999999997</v>
       </c>
       <c r="E2">
-        <v>3.05</v>
+        <v>23.179999999999996</v>
       </c>
       <c r="F2">
-        <v>3.9</v>
+        <v>29.639999999999997</v>
       </c>
       <c r="G2">
-        <v>4.6500000000000004</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="H2">
-        <v>5.2</v>
+        <v>39.519999999999996</v>
       </c>
       <c r="I2">
-        <v>5.9</v>
+        <v>44.84</v>
       </c>
       <c r="J2">
-        <v>6.05</v>
+        <v>45.98</v>
       </c>
       <c r="K2">
-        <v>5.95</v>
+        <v>45.22</v>
       </c>
       <c r="L2">
-        <v>5.65</v>
+        <v>42.94</v>
       </c>
       <c r="M2">
-        <v>5.15</v>
+        <v>39.14</v>
       </c>
       <c r="N2">
-        <v>5.05</v>
+        <v>38.379999999999995</v>
       </c>
       <c r="O2">
-        <v>4.8499999999999996</v>
+        <v>36.859999999999992</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.5</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="B3">
-        <v>1.8</v>
+        <v>13.68</v>
       </c>
       <c r="C3">
-        <v>2.1</v>
+        <v>15.959999999999999</v>
       </c>
       <c r="D3">
-        <v>2.6</v>
+        <v>19.759999999999998</v>
       </c>
       <c r="E3">
-        <v>3.1</v>
+        <v>23.56</v>
       </c>
       <c r="F3">
-        <v>3.8</v>
+        <v>28.88</v>
       </c>
       <c r="G3">
-        <v>4.4000000000000004</v>
+        <v>33.44</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>5.3</v>
+        <v>40.279999999999994</v>
       </c>
       <c r="J3">
-        <v>5.6</v>
+        <v>42.559999999999995</v>
       </c>
       <c r="K3">
-        <v>5.55</v>
+        <v>42.18</v>
       </c>
       <c r="L3">
-        <v>5.3</v>
+        <v>40.279999999999994</v>
       </c>
       <c r="M3">
-        <v>5.15</v>
+        <v>39.14</v>
       </c>
       <c r="N3">
-        <v>5.05</v>
+        <v>38.379999999999995</v>
       </c>
       <c r="O3">
-        <v>5.05</v>
+        <v>38.379999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.1</v>
+        <v>15.959999999999999</v>
       </c>
       <c r="B4">
-        <v>2.2999999999999998</v>
+        <v>17.479999999999997</v>
       </c>
       <c r="C4">
-        <v>2.6</v>
+        <v>19.759999999999998</v>
       </c>
       <c r="D4">
-        <v>2.9</v>
+        <v>22.04</v>
       </c>
       <c r="E4">
-        <v>3.2</v>
+        <v>24.32</v>
       </c>
       <c r="F4">
-        <v>3.7</v>
+        <v>28.12</v>
       </c>
       <c r="G4">
-        <v>4.1500000000000004</v>
+        <v>31.540000000000003</v>
       </c>
       <c r="H4">
-        <v>4.7</v>
+        <v>35.72</v>
       </c>
       <c r="I4">
-        <v>4.9000000000000004</v>
+        <v>37.24</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>5.05</v>
+        <v>38.379999999999995</v>
       </c>
       <c r="L4">
-        <v>4.95</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="M4">
-        <v>4.9000000000000004</v>
+        <v>37.24</v>
       </c>
       <c r="N4">
-        <v>4.8499999999999996</v>
+        <v>36.859999999999992</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.6</v>
+        <v>19.759999999999998</v>
       </c>
       <c r="B5">
-        <v>2.9</v>
+        <v>22.04</v>
       </c>
       <c r="C5">
-        <v>3.05</v>
+        <v>23.179999999999996</v>
       </c>
       <c r="D5">
-        <v>3.1</v>
+        <v>23.56</v>
       </c>
       <c r="E5">
-        <v>3.3</v>
+        <v>25.08</v>
       </c>
       <c r="F5">
-        <v>3.6</v>
+        <v>27.36</v>
       </c>
       <c r="G5">
-        <v>3.9</v>
+        <v>29.639999999999997</v>
       </c>
       <c r="H5">
-        <v>4.2</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="I5">
-        <v>4.45</v>
+        <v>33.82</v>
       </c>
       <c r="J5">
-        <v>4.5999999999999996</v>
+        <v>34.959999999999994</v>
       </c>
       <c r="K5">
-        <v>4.5999999999999996</v>
+        <v>34.959999999999994</v>
       </c>
       <c r="L5">
-        <v>4.55</v>
+        <v>34.58</v>
       </c>
       <c r="M5">
-        <v>4.5</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="N5">
-        <v>4.5999999999999996</v>
+        <v>34.959999999999994</v>
       </c>
       <c r="O5">
-        <v>4.8499999999999996</v>
+        <v>36.859999999999992</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3.1</v>
+        <v>23.56</v>
       </c>
       <c r="B6">
-        <v>3.15</v>
+        <v>23.939999999999998</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>24.32</v>
       </c>
       <c r="D6">
-        <v>3.25</v>
+        <v>24.7</v>
       </c>
       <c r="E6">
-        <v>3.4</v>
+        <v>25.84</v>
       </c>
       <c r="F6">
-        <v>3.5</v>
+        <v>26.599999999999998</v>
       </c>
       <c r="G6">
-        <v>3.8</v>
+        <v>28.88</v>
       </c>
       <c r="H6">
-        <v>3.95</v>
+        <v>30.02</v>
       </c>
       <c r="I6">
-        <v>4.05</v>
+        <v>30.779999999999998</v>
       </c>
       <c r="J6">
-        <v>4.0999999999999996</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="L6">
-        <v>4.05</v>
+        <v>30.779999999999998</v>
       </c>
       <c r="M6">
-        <v>4.0999999999999996</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="N6">
-        <v>4.2</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="O6">
-        <v>4.55</v>
+        <v>34.58</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.6</v>
+        <v>27.36</v>
       </c>
       <c r="B7">
-        <v>3.6</v>
+        <v>27.36</v>
       </c>
       <c r="C7">
-        <v>3.65</v>
+        <v>27.74</v>
       </c>
       <c r="D7">
-        <v>3.7</v>
+        <v>28.12</v>
       </c>
       <c r="E7">
-        <v>3.65</v>
+        <v>27.74</v>
       </c>
       <c r="F7">
-        <v>3.6</v>
+        <v>27.36</v>
       </c>
       <c r="G7">
-        <v>3.55</v>
+        <v>26.979999999999997</v>
       </c>
       <c r="H7">
-        <v>3.5</v>
+        <v>26.599999999999998</v>
       </c>
       <c r="I7">
-        <v>3.7</v>
+        <v>28.12</v>
       </c>
       <c r="J7">
-        <v>3.7</v>
+        <v>28.12</v>
       </c>
       <c r="K7">
-        <v>3.7</v>
+        <v>28.12</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>28.5</v>
       </c>
       <c r="M7">
-        <v>3.8</v>
+        <v>28.88</v>
       </c>
       <c r="N7">
-        <v>3.9</v>
+        <v>29.639999999999997</v>
       </c>
       <c r="O7">
-        <v>4.1500000000000004</v>
+        <v>31.540000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3.2</v>
+        <v>24.32</v>
       </c>
       <c r="B8">
-        <v>3.3</v>
+        <v>25.08</v>
       </c>
       <c r="C8">
-        <v>3.3</v>
+        <v>25.08</v>
       </c>
       <c r="D8">
-        <v>3.35</v>
+        <v>25.46</v>
       </c>
       <c r="E8">
-        <v>3.3</v>
+        <v>25.08</v>
       </c>
       <c r="F8">
-        <v>3.3</v>
+        <v>25.08</v>
       </c>
       <c r="G8">
-        <v>3.25</v>
+        <v>24.7</v>
       </c>
       <c r="H8">
-        <v>3.1</v>
+        <v>23.56</v>
       </c>
       <c r="I8">
-        <v>3.2</v>
+        <v>24.32</v>
       </c>
       <c r="J8">
-        <v>3.15</v>
+        <v>23.939999999999998</v>
       </c>
       <c r="K8">
-        <v>3.2</v>
+        <v>24.32</v>
       </c>
       <c r="L8">
-        <v>3.25</v>
+        <v>24.7</v>
       </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>25.84</v>
       </c>
       <c r="N8">
-        <v>3.7</v>
+        <v>28.12</v>
       </c>
       <c r="O8">
-        <v>3.9</v>
+        <v>29.639999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2.8</v>
+        <v>21.279999999999998</v>
       </c>
       <c r="B9">
-        <v>2.9</v>
+        <v>22.04</v>
       </c>
       <c r="C9">
-        <v>2.95</v>
+        <v>22.42</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>22.799999999999997</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>22.799999999999997</v>
       </c>
       <c r="F9">
-        <v>3.05</v>
+        <v>23.179999999999996</v>
       </c>
       <c r="G9">
-        <v>2.95</v>
+        <v>22.42</v>
       </c>
       <c r="H9">
-        <v>2.7</v>
+        <v>20.52</v>
       </c>
       <c r="I9">
-        <v>2.6</v>
+        <v>19.759999999999998</v>
       </c>
       <c r="J9">
-        <v>2.7</v>
+        <v>20.52</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>20.9</v>
       </c>
       <c r="L9">
-        <v>2.9</v>
+        <v>22.04</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>23.56</v>
       </c>
       <c r="N9">
-        <v>3.4</v>
+        <v>25.84</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>28.88</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Data/CT8_golf_green_data.xlsx
+++ b/Images_and_Data/Data/CT8_golf_green_data.xlsx
@@ -24,7 +24,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>x9</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>y6</t>
+  </si>
+  <si>
+    <t>y7</t>
+  </si>
+  <si>
+    <t>y8</t>
+  </si>
+  <si>
+    <t>y9</t>
+  </si>
+  <si>
+    <t>y10</t>
+  </si>
+  <si>
+    <t>y11</t>
+  </si>
+  <si>
+    <t>y12</t>
+  </si>
+  <si>
+    <t>y13</t>
+  </si>
+  <si>
+    <t>y14</t>
+  </si>
+  <si>
+    <t>y15</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,434 +413,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A1:XFD23"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1.9</v>
       </c>
-      <c r="B1">
+      <c r="C2">
         <v>6.08</v>
       </c>
-      <c r="C1">
+      <c r="D2">
         <v>9.879999999999999</v>
       </c>
-      <c r="D1">
+      <c r="E2">
         <v>15.959999999999999</v>
       </c>
-      <c r="E1">
+      <c r="F2">
         <v>22.42</v>
       </c>
-      <c r="F1">
+      <c r="G2">
         <v>28.88</v>
       </c>
-      <c r="G1">
+      <c r="H2">
         <v>36.479999999999997</v>
       </c>
-      <c r="H1">
+      <c r="I2">
         <v>41.8</v>
       </c>
-      <c r="I1">
+      <c r="J2">
         <v>45.599999999999994</v>
       </c>
-      <c r="J1">
+      <c r="K2">
         <v>47.12</v>
       </c>
-      <c r="K1">
+      <c r="L2">
         <v>46.359999999999992</v>
       </c>
-      <c r="L1">
+      <c r="M2">
         <v>43.32</v>
-      </c>
-      <c r="M1">
-        <v>38.379999999999995</v>
-      </c>
-      <c r="N1">
-        <v>34.959999999999994</v>
-      </c>
-      <c r="O1">
-        <v>32.68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6.84</v>
-      </c>
-      <c r="B2">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="C2">
-        <v>13.68</v>
-      </c>
-      <c r="D2">
-        <v>17.479999999999997</v>
-      </c>
-      <c r="E2">
-        <v>23.179999999999996</v>
-      </c>
-      <c r="F2">
-        <v>29.639999999999997</v>
-      </c>
-      <c r="G2">
-        <v>35.340000000000003</v>
-      </c>
-      <c r="H2">
-        <v>39.519999999999996</v>
-      </c>
-      <c r="I2">
-        <v>44.84</v>
-      </c>
-      <c r="J2">
-        <v>45.98</v>
-      </c>
-      <c r="K2">
-        <v>45.22</v>
-      </c>
-      <c r="L2">
-        <v>42.94</v>
-      </c>
-      <c r="M2">
-        <v>39.14</v>
       </c>
       <c r="N2">
         <v>38.379999999999995</v>
       </c>
       <c r="O2">
-        <v>36.859999999999992</v>
+        <v>34.959999999999994</v>
+      </c>
+      <c r="P2">
+        <v>32.68</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11.399999999999999</v>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
+        <v>6.84</v>
+      </c>
+      <c r="C3">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="D3">
         <v>13.68</v>
       </c>
-      <c r="C3">
-        <v>15.959999999999999</v>
-      </c>
-      <c r="D3">
-        <v>19.759999999999998</v>
-      </c>
       <c r="E3">
-        <v>23.56</v>
+        <v>17.479999999999997</v>
       </c>
       <c r="F3">
-        <v>28.88</v>
+        <v>23.179999999999996</v>
       </c>
       <c r="G3">
-        <v>33.44</v>
+        <v>29.639999999999997</v>
       </c>
       <c r="H3">
-        <v>38</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="I3">
-        <v>40.279999999999994</v>
+        <v>39.519999999999996</v>
       </c>
       <c r="J3">
-        <v>42.559999999999995</v>
+        <v>44.84</v>
       </c>
       <c r="K3">
-        <v>42.18</v>
+        <v>45.98</v>
       </c>
       <c r="L3">
-        <v>40.279999999999994</v>
+        <v>45.22</v>
       </c>
       <c r="M3">
+        <v>42.94</v>
+      </c>
+      <c r="N3">
         <v>39.14</v>
-      </c>
-      <c r="N3">
-        <v>38.379999999999995</v>
       </c>
       <c r="O3">
         <v>38.379999999999995</v>
       </c>
+      <c r="P3">
+        <v>36.859999999999992</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11.399999999999999</v>
+      </c>
+      <c r="C4">
+        <v>13.68</v>
+      </c>
+      <c r="D4">
         <v>15.959999999999999</v>
       </c>
-      <c r="B4">
+      <c r="E4">
+        <v>19.759999999999998</v>
+      </c>
+      <c r="F4">
+        <v>23.56</v>
+      </c>
+      <c r="G4">
+        <v>28.88</v>
+      </c>
+      <c r="H4">
+        <v>33.44</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>40.279999999999994</v>
+      </c>
+      <c r="K4">
+        <v>42.559999999999995</v>
+      </c>
+      <c r="L4">
+        <v>42.18</v>
+      </c>
+      <c r="M4">
+        <v>40.279999999999994</v>
+      </c>
+      <c r="N4">
+        <v>39.14</v>
+      </c>
+      <c r="O4">
+        <v>38.379999999999995</v>
+      </c>
+      <c r="P4">
+        <v>38.379999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15.959999999999999</v>
+      </c>
+      <c r="C5">
         <v>17.479999999999997</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>19.759999999999998</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>22.04</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>24.32</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>28.12</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>31.540000000000003</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>35.72</v>
       </c>
-      <c r="I4">
+      <c r="J5">
         <v>37.24</v>
       </c>
-      <c r="J4">
+      <c r="K5">
         <v>38</v>
       </c>
-      <c r="K4">
+      <c r="L5">
         <v>38.379999999999995</v>
       </c>
-      <c r="L4">
+      <c r="M5">
         <v>37.619999999999997</v>
       </c>
-      <c r="M4">
+      <c r="N5">
         <v>37.24</v>
-      </c>
-      <c r="N4">
-        <v>36.859999999999992</v>
-      </c>
-      <c r="O4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>19.759999999999998</v>
-      </c>
-      <c r="B5">
-        <v>22.04</v>
-      </c>
-      <c r="C5">
-        <v>23.179999999999996</v>
-      </c>
-      <c r="D5">
-        <v>23.56</v>
-      </c>
-      <c r="E5">
-        <v>25.08</v>
-      </c>
-      <c r="F5">
-        <v>27.36</v>
-      </c>
-      <c r="G5">
-        <v>29.639999999999997</v>
-      </c>
-      <c r="H5">
-        <v>31.919999999999998</v>
-      </c>
-      <c r="I5">
-        <v>33.82</v>
-      </c>
-      <c r="J5">
-        <v>34.959999999999994</v>
-      </c>
-      <c r="K5">
-        <v>34.959999999999994</v>
-      </c>
-      <c r="L5">
-        <v>34.58</v>
-      </c>
-      <c r="M5">
-        <v>34.199999999999996</v>
-      </c>
-      <c r="N5">
-        <v>34.959999999999994</v>
       </c>
       <c r="O5">
         <v>36.859999999999992</v>
       </c>
+      <c r="P5">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>19.759999999999998</v>
+      </c>
+      <c r="C6">
+        <v>22.04</v>
+      </c>
+      <c r="D6">
+        <v>23.179999999999996</v>
+      </c>
+      <c r="E6">
         <v>23.56</v>
       </c>
-      <c r="B6">
+      <c r="F6">
+        <v>25.08</v>
+      </c>
+      <c r="G6">
+        <v>27.36</v>
+      </c>
+      <c r="H6">
+        <v>29.639999999999997</v>
+      </c>
+      <c r="I6">
+        <v>31.919999999999998</v>
+      </c>
+      <c r="J6">
+        <v>33.82</v>
+      </c>
+      <c r="K6">
+        <v>34.959999999999994</v>
+      </c>
+      <c r="L6">
+        <v>34.959999999999994</v>
+      </c>
+      <c r="M6">
+        <v>34.58</v>
+      </c>
+      <c r="N6">
+        <v>34.199999999999996</v>
+      </c>
+      <c r="O6">
+        <v>34.959999999999994</v>
+      </c>
+      <c r="P6">
+        <v>36.859999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>23.56</v>
+      </c>
+      <c r="C7">
         <v>23.939999999999998</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>24.32</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>24.7</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>25.84</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>26.599999999999998</v>
       </c>
-      <c r="G6">
+      <c r="H7">
         <v>28.88</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>30.02</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <v>30.779999999999998</v>
       </c>
-      <c r="J6">
+      <c r="K7">
         <v>31.159999999999997</v>
       </c>
-      <c r="K6">
+      <c r="L7">
         <v>30.4</v>
       </c>
-      <c r="L6">
+      <c r="M7">
         <v>30.779999999999998</v>
       </c>
-      <c r="M6">
+      <c r="N7">
         <v>31.159999999999997</v>
       </c>
-      <c r="N6">
+      <c r="O7">
         <v>31.919999999999998</v>
       </c>
-      <c r="O6">
+      <c r="P7">
         <v>34.58</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>27.36</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>27.36</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>27.74</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>28.12</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>27.74</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>27.36</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>26.979999999999997</v>
       </c>
-      <c r="H7">
+      <c r="I8">
         <v>26.599999999999998</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <v>28.12</v>
       </c>
-      <c r="J7">
+      <c r="K8">
         <v>28.12</v>
       </c>
-      <c r="K7">
+      <c r="L8">
         <v>28.12</v>
       </c>
-      <c r="L7">
+      <c r="M8">
         <v>28.5</v>
       </c>
-      <c r="M7">
+      <c r="N8">
         <v>28.88</v>
-      </c>
-      <c r="N7">
-        <v>29.639999999999997</v>
-      </c>
-      <c r="O7">
-        <v>31.540000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>24.32</v>
-      </c>
-      <c r="B8">
-        <v>25.08</v>
-      </c>
-      <c r="C8">
-        <v>25.08</v>
-      </c>
-      <c r="D8">
-        <v>25.46</v>
-      </c>
-      <c r="E8">
-        <v>25.08</v>
-      </c>
-      <c r="F8">
-        <v>25.08</v>
-      </c>
-      <c r="G8">
-        <v>24.7</v>
-      </c>
-      <c r="H8">
-        <v>23.56</v>
-      </c>
-      <c r="I8">
-        <v>24.32</v>
-      </c>
-      <c r="J8">
-        <v>23.939999999999998</v>
-      </c>
-      <c r="K8">
-        <v>24.32</v>
-      </c>
-      <c r="L8">
-        <v>24.7</v>
-      </c>
-      <c r="M8">
-        <v>25.84</v>
-      </c>
-      <c r="N8">
-        <v>28.12</v>
       </c>
       <c r="O8">
         <v>29.639999999999997</v>
       </c>
+      <c r="P8">
+        <v>31.540000000000003</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>21.279999999999998</v>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>22.04</v>
+        <v>24.32</v>
       </c>
       <c r="C9">
-        <v>22.42</v>
+        <v>25.08</v>
       </c>
       <c r="D9">
-        <v>22.799999999999997</v>
+        <v>25.08</v>
       </c>
       <c r="E9">
-        <v>22.799999999999997</v>
+        <v>25.46</v>
       </c>
       <c r="F9">
-        <v>23.179999999999996</v>
+        <v>25.08</v>
       </c>
       <c r="G9">
-        <v>22.42</v>
+        <v>25.08</v>
       </c>
       <c r="H9">
-        <v>20.52</v>
+        <v>24.7</v>
       </c>
       <c r="I9">
-        <v>19.759999999999998</v>
+        <v>23.56</v>
       </c>
       <c r="J9">
-        <v>20.52</v>
+        <v>24.32</v>
       </c>
       <c r="K9">
-        <v>20.9</v>
+        <v>23.939999999999998</v>
       </c>
       <c r="L9">
-        <v>22.04</v>
+        <v>24.32</v>
       </c>
       <c r="M9">
-        <v>23.56</v>
+        <v>24.7</v>
       </c>
       <c r="N9">
         <v>25.84</v>
       </c>
       <c r="O9">
+        <v>28.12</v>
+      </c>
+      <c r="P9">
+        <v>29.639999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>21.279999999999998</v>
+      </c>
+      <c r="C10">
+        <v>22.04</v>
+      </c>
+      <c r="D10">
+        <v>22.42</v>
+      </c>
+      <c r="E10">
+        <v>22.799999999999997</v>
+      </c>
+      <c r="F10">
+        <v>22.799999999999997</v>
+      </c>
+      <c r="G10">
+        <v>23.179999999999996</v>
+      </c>
+      <c r="H10">
+        <v>22.42</v>
+      </c>
+      <c r="I10">
+        <v>20.52</v>
+      </c>
+      <c r="J10">
+        <v>19.759999999999998</v>
+      </c>
+      <c r="K10">
+        <v>20.52</v>
+      </c>
+      <c r="L10">
+        <v>20.9</v>
+      </c>
+      <c r="M10">
+        <v>22.04</v>
+      </c>
+      <c r="N10">
+        <v>23.56</v>
+      </c>
+      <c r="O10">
+        <v>25.84</v>
+      </c>
+      <c r="P10">
         <v>28.88</v>
       </c>
     </row>

--- a/Images_and_Data/Data/CT8_golf_green_data.xlsx
+++ b/Images_and_Data/Data/CT8_golf_green_data.xlsx
@@ -24,80 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>x7</t>
-  </si>
-  <si>
-    <t>x8</t>
-  </si>
-  <si>
-    <t>x9</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>y4</t>
-  </si>
-  <si>
-    <t>y5</t>
-  </si>
-  <si>
-    <t>y6</t>
-  </si>
-  <si>
-    <t>y7</t>
-  </si>
-  <si>
-    <t>y8</t>
-  </si>
-  <si>
-    <t>y9</t>
-  </si>
-  <si>
-    <t>y10</t>
-  </si>
-  <si>
-    <t>y11</t>
-  </si>
-  <si>
-    <t>y12</t>
-  </si>
-  <si>
-    <t>y13</t>
-  </si>
-  <si>
-    <t>y14</t>
-  </si>
-  <si>
-    <t>y15</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,60 +343,74 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>1+B1</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:P1" si="0">1+C1</f>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -519,7 +460,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <f>1+A2</f>
         <v>1</v>
       </c>
       <c r="B3">
@@ -569,7 +511,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
+        <f t="shared" ref="A4:A10" si="1">1+A3</f>
         <v>2</v>
       </c>
       <c r="B4">
@@ -619,7 +562,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5">
@@ -669,7 +613,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -719,7 +664,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -769,7 +715,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -819,7 +766,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -869,7 +817,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10">

--- a/Images_and_Data/Data/CT8_golf_green_data.xlsx
+++ b/Images_and_Data/Data/CT8_golf_green_data.xlsx
@@ -340,76 +340,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
-        <f>1+B1</f>
         <v>1</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:P1" si="0">1+C1</f>
         <v>2</v>
       </c>
       <c r="E1">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F1">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G1">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H1">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="J1">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -417,55 +385,36 @@
         <v>1.9</v>
       </c>
       <c r="C2">
-        <v>6.08</v>
+        <v>6.84</v>
       </c>
       <c r="D2">
-        <v>9.879999999999999</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="E2">
         <v>15.959999999999999</v>
       </c>
       <c r="F2">
-        <v>22.42</v>
+        <v>19.759999999999998</v>
       </c>
       <c r="G2">
-        <v>28.88</v>
+        <v>23.56</v>
       </c>
       <c r="H2">
-        <v>36.479999999999997</v>
+        <v>27.36</v>
       </c>
       <c r="I2">
-        <v>41.8</v>
+        <v>24.32</v>
       </c>
       <c r="J2">
-        <v>45.599999999999994</v>
-      </c>
-      <c r="K2">
-        <v>47.12</v>
-      </c>
-      <c r="L2">
-        <v>46.359999999999992</v>
-      </c>
-      <c r="M2">
-        <v>43.32</v>
-      </c>
-      <c r="N2">
-        <v>38.379999999999995</v>
-      </c>
-      <c r="O2">
-        <v>34.959999999999994</v>
-      </c>
-      <c r="P2">
-        <v>32.68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21.279999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>1+A2</f>
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.84</v>
+        <v>6.08</v>
       </c>
       <c r="C3">
         <v>9.1199999999999992</v>
@@ -477,46 +426,27 @@
         <v>17.479999999999997</v>
       </c>
       <c r="F3">
-        <v>23.179999999999996</v>
+        <v>22.04</v>
       </c>
       <c r="G3">
-        <v>29.639999999999997</v>
+        <v>23.939999999999998</v>
       </c>
       <c r="H3">
-        <v>35.340000000000003</v>
+        <v>27.36</v>
       </c>
       <c r="I3">
-        <v>39.519999999999996</v>
+        <v>25.08</v>
       </c>
       <c r="J3">
-        <v>44.84</v>
-      </c>
-      <c r="K3">
-        <v>45.98</v>
-      </c>
-      <c r="L3">
-        <v>45.22</v>
-      </c>
-      <c r="M3">
-        <v>42.94</v>
-      </c>
-      <c r="N3">
-        <v>39.14</v>
-      </c>
-      <c r="O3">
-        <v>38.379999999999995</v>
-      </c>
-      <c r="P3">
-        <v>36.859999999999992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="1">1+A3</f>
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.399999999999999</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="C4">
         <v>13.68</v>
@@ -528,42 +458,23 @@
         <v>19.759999999999998</v>
       </c>
       <c r="F4">
-        <v>23.56</v>
+        <v>23.179999999999996</v>
       </c>
       <c r="G4">
-        <v>28.88</v>
+        <v>24.32</v>
       </c>
       <c r="H4">
-        <v>33.44</v>
+        <v>27.74</v>
       </c>
       <c r="I4">
-        <v>38</v>
+        <v>25.08</v>
       </c>
       <c r="J4">
-        <v>40.279999999999994</v>
-      </c>
-      <c r="K4">
-        <v>42.559999999999995</v>
-      </c>
-      <c r="L4">
-        <v>42.18</v>
-      </c>
-      <c r="M4">
-        <v>40.279999999999994</v>
-      </c>
-      <c r="N4">
-        <v>39.14</v>
-      </c>
-      <c r="O4">
-        <v>38.379999999999995</v>
-      </c>
-      <c r="P4">
-        <v>38.379999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5">
@@ -579,291 +490,370 @@
         <v>22.04</v>
       </c>
       <c r="F5">
+        <v>23.56</v>
+      </c>
+      <c r="G5">
+        <v>24.7</v>
+      </c>
+      <c r="H5">
+        <v>28.12</v>
+      </c>
+      <c r="I5">
+        <v>25.46</v>
+      </c>
+      <c r="J5">
+        <v>22.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>22.42</v>
+      </c>
+      <c r="C6">
+        <v>23.179999999999996</v>
+      </c>
+      <c r="D6">
+        <v>23.56</v>
+      </c>
+      <c r="E6">
         <v>24.32</v>
-      </c>
-      <c r="G5">
-        <v>28.12</v>
-      </c>
-      <c r="H5">
-        <v>31.540000000000003</v>
-      </c>
-      <c r="I5">
-        <v>35.72</v>
-      </c>
-      <c r="J5">
-        <v>37.24</v>
-      </c>
-      <c r="K5">
-        <v>38</v>
-      </c>
-      <c r="L5">
-        <v>38.379999999999995</v>
-      </c>
-      <c r="M5">
-        <v>37.619999999999997</v>
-      </c>
-      <c r="N5">
-        <v>37.24</v>
-      </c>
-      <c r="O5">
-        <v>36.859999999999992</v>
-      </c>
-      <c r="P5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>19.759999999999998</v>
-      </c>
-      <c r="C6">
-        <v>22.04</v>
-      </c>
-      <c r="D6">
-        <v>23.179999999999996</v>
-      </c>
-      <c r="E6">
-        <v>23.56</v>
       </c>
       <c r="F6">
         <v>25.08</v>
       </c>
       <c r="G6">
+        <v>25.84</v>
+      </c>
+      <c r="H6">
+        <v>27.74</v>
+      </c>
+      <c r="I6">
+        <v>25.08</v>
+      </c>
+      <c r="J6">
+        <v>22.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>28.88</v>
+      </c>
+      <c r="C7">
+        <v>29.639999999999997</v>
+      </c>
+      <c r="D7">
+        <v>28.88</v>
+      </c>
+      <c r="E7">
+        <v>28.12</v>
+      </c>
+      <c r="F7">
         <v>27.36</v>
-      </c>
-      <c r="H6">
-        <v>29.639999999999997</v>
-      </c>
-      <c r="I6">
-        <v>31.919999999999998</v>
-      </c>
-      <c r="J6">
-        <v>33.82</v>
-      </c>
-      <c r="K6">
-        <v>34.959999999999994</v>
-      </c>
-      <c r="L6">
-        <v>34.959999999999994</v>
-      </c>
-      <c r="M6">
-        <v>34.58</v>
-      </c>
-      <c r="N6">
-        <v>34.199999999999996</v>
-      </c>
-      <c r="O6">
-        <v>34.959999999999994</v>
-      </c>
-      <c r="P6">
-        <v>36.859999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>23.56</v>
-      </c>
-      <c r="C7">
-        <v>23.939999999999998</v>
-      </c>
-      <c r="D7">
-        <v>24.32</v>
-      </c>
-      <c r="E7">
-        <v>24.7</v>
-      </c>
-      <c r="F7">
-        <v>25.84</v>
       </c>
       <c r="G7">
         <v>26.599999999999998</v>
       </c>
       <c r="H7">
+        <v>27.36</v>
+      </c>
+      <c r="I7">
+        <v>25.08</v>
+      </c>
+      <c r="J7">
+        <v>23.179999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="C8">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="D8">
+        <v>33.44</v>
+      </c>
+      <c r="E8">
+        <v>31.540000000000003</v>
+      </c>
+      <c r="F8">
+        <v>29.639999999999997</v>
+      </c>
+      <c r="G8">
         <v>28.88</v>
-      </c>
-      <c r="I7">
-        <v>30.02</v>
-      </c>
-      <c r="J7">
-        <v>30.779999999999998</v>
-      </c>
-      <c r="K7">
-        <v>31.159999999999997</v>
-      </c>
-      <c r="L7">
-        <v>30.4</v>
-      </c>
-      <c r="M7">
-        <v>30.779999999999998</v>
-      </c>
-      <c r="N7">
-        <v>31.159999999999997</v>
-      </c>
-      <c r="O7">
-        <v>31.919999999999998</v>
-      </c>
-      <c r="P7">
-        <v>34.58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>27.36</v>
-      </c>
-      <c r="C8">
-        <v>27.36</v>
-      </c>
-      <c r="D8">
-        <v>27.74</v>
-      </c>
-      <c r="E8">
-        <v>28.12</v>
-      </c>
-      <c r="F8">
-        <v>27.74</v>
-      </c>
-      <c r="G8">
-        <v>27.36</v>
       </c>
       <c r="H8">
         <v>26.979999999999997</v>
       </c>
       <c r="I8">
+        <v>24.7</v>
+      </c>
+      <c r="J8">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>41.8</v>
+      </c>
+      <c r="C9">
+        <v>39.519999999999996</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>35.72</v>
+      </c>
+      <c r="F9">
+        <v>31.919999999999998</v>
+      </c>
+      <c r="G9">
+        <v>30.02</v>
+      </c>
+      <c r="H9">
         <v>26.599999999999998</v>
-      </c>
-      <c r="J8">
-        <v>28.12</v>
-      </c>
-      <c r="K8">
-        <v>28.12</v>
-      </c>
-      <c r="L8">
-        <v>28.12</v>
-      </c>
-      <c r="M8">
-        <v>28.5</v>
-      </c>
-      <c r="N8">
-        <v>28.88</v>
-      </c>
-      <c r="O8">
-        <v>29.639999999999997</v>
-      </c>
-      <c r="P8">
-        <v>31.540000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>24.32</v>
-      </c>
-      <c r="C9">
-        <v>25.08</v>
-      </c>
-      <c r="D9">
-        <v>25.08</v>
-      </c>
-      <c r="E9">
-        <v>25.46</v>
-      </c>
-      <c r="F9">
-        <v>25.08</v>
-      </c>
-      <c r="G9">
-        <v>25.08</v>
-      </c>
-      <c r="H9">
-        <v>24.7</v>
       </c>
       <c r="I9">
         <v>23.56</v>
       </c>
       <c r="J9">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>45.599999999999994</v>
+      </c>
+      <c r="C10">
+        <v>44.84</v>
+      </c>
+      <c r="D10">
+        <v>40.279999999999994</v>
+      </c>
+      <c r="E10">
+        <v>37.24</v>
+      </c>
+      <c r="F10">
+        <v>33.82</v>
+      </c>
+      <c r="G10">
+        <v>30.779999999999998</v>
+      </c>
+      <c r="H10">
+        <v>28.12</v>
+      </c>
+      <c r="I10">
         <v>24.32</v>
-      </c>
-      <c r="K9">
-        <v>23.939999999999998</v>
-      </c>
-      <c r="L9">
-        <v>24.32</v>
-      </c>
-      <c r="M9">
-        <v>24.7</v>
-      </c>
-      <c r="N9">
-        <v>25.84</v>
-      </c>
-      <c r="O9">
-        <v>28.12</v>
-      </c>
-      <c r="P9">
-        <v>29.639999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>21.279999999999998</v>
-      </c>
-      <c r="C10">
-        <v>22.04</v>
-      </c>
-      <c r="D10">
-        <v>22.42</v>
-      </c>
-      <c r="E10">
-        <v>22.799999999999997</v>
-      </c>
-      <c r="F10">
-        <v>22.799999999999997</v>
-      </c>
-      <c r="G10">
-        <v>23.179999999999996</v>
-      </c>
-      <c r="H10">
-        <v>22.42</v>
-      </c>
-      <c r="I10">
-        <v>20.52</v>
       </c>
       <c r="J10">
         <v>19.759999999999998</v>
       </c>
-      <c r="K10">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>47.12</v>
+      </c>
+      <c r="C11">
+        <v>45.98</v>
+      </c>
+      <c r="D11">
+        <v>42.559999999999995</v>
+      </c>
+      <c r="E11">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>34.959999999999994</v>
+      </c>
+      <c r="G11">
+        <v>31.159999999999997</v>
+      </c>
+      <c r="H11">
+        <v>28.12</v>
+      </c>
+      <c r="I11">
+        <v>23.939999999999998</v>
+      </c>
+      <c r="J11">
         <v>20.52</v>
       </c>
-      <c r="L10">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>46.359999999999992</v>
+      </c>
+      <c r="C12">
+        <v>45.22</v>
+      </c>
+      <c r="D12">
+        <v>42.18</v>
+      </c>
+      <c r="E12">
+        <v>38.379999999999995</v>
+      </c>
+      <c r="F12">
+        <v>34.959999999999994</v>
+      </c>
+      <c r="G12">
+        <v>30.4</v>
+      </c>
+      <c r="H12">
+        <v>28.12</v>
+      </c>
+      <c r="I12">
+        <v>24.32</v>
+      </c>
+      <c r="J12">
         <v>20.9</v>
       </c>
-      <c r="M10">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>43.32</v>
+      </c>
+      <c r="C13">
+        <v>42.94</v>
+      </c>
+      <c r="D13">
+        <v>40.279999999999994</v>
+      </c>
+      <c r="E13">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="F13">
+        <v>34.58</v>
+      </c>
+      <c r="G13">
+        <v>30.779999999999998</v>
+      </c>
+      <c r="H13">
+        <v>28.5</v>
+      </c>
+      <c r="I13">
+        <v>24.7</v>
+      </c>
+      <c r="J13">
         <v>22.04</v>
       </c>
-      <c r="N10">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>38.379999999999995</v>
+      </c>
+      <c r="C14">
+        <v>39.14</v>
+      </c>
+      <c r="D14">
+        <v>39.14</v>
+      </c>
+      <c r="E14">
+        <v>37.24</v>
+      </c>
+      <c r="F14">
+        <v>34.199999999999996</v>
+      </c>
+      <c r="G14">
+        <v>31.159999999999997</v>
+      </c>
+      <c r="H14">
+        <v>28.88</v>
+      </c>
+      <c r="I14">
+        <v>25.84</v>
+      </c>
+      <c r="J14">
         <v>23.56</v>
       </c>
-      <c r="O10">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>34.959999999999994</v>
+      </c>
+      <c r="C15">
+        <v>38.379999999999995</v>
+      </c>
+      <c r="D15">
+        <v>38.379999999999995</v>
+      </c>
+      <c r="E15">
+        <v>36.859999999999992</v>
+      </c>
+      <c r="F15">
+        <v>34.959999999999994</v>
+      </c>
+      <c r="G15">
+        <v>31.919999999999998</v>
+      </c>
+      <c r="H15">
+        <v>29.639999999999997</v>
+      </c>
+      <c r="I15">
+        <v>28.12</v>
+      </c>
+      <c r="J15">
         <v>25.84</v>
       </c>
-      <c r="P10">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>32.68</v>
+      </c>
+      <c r="C16">
+        <v>36.859999999999992</v>
+      </c>
+      <c r="D16">
+        <v>38.379999999999995</v>
+      </c>
+      <c r="E16">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>36.859999999999992</v>
+      </c>
+      <c r="G16">
+        <v>34.58</v>
+      </c>
+      <c r="H16">
+        <v>31.540000000000003</v>
+      </c>
+      <c r="I16">
+        <v>29.639999999999997</v>
+      </c>
+      <c r="J16">
         <v>28.88</v>
       </c>
     </row>

--- a/Images_and_Data/Data/CT8_golf_green_data.xlsx
+++ b/Images_and_Data/Data/CT8_golf_green_data.xlsx
@@ -343,7 +343,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -353,28 +353,28 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>4.5749999999999993</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="G1">
-        <v>5</v>
+        <v>7.625</v>
       </c>
       <c r="H1">
-        <v>6</v>
+        <v>9.1499999999999986</v>
       </c>
       <c r="I1">
-        <v>7</v>
+        <v>10.674999999999999</v>
       </c>
       <c r="J1">
-        <v>8</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -411,7 +411,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="B3">
         <v>6.08</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="B4">
         <v>9.879999999999999</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4.5749999999999993</v>
       </c>
       <c r="B5">
         <v>15.959999999999999</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="B6">
         <v>22.42</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>7.625</v>
       </c>
       <c r="B7">
         <v>28.88</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>9.1499999999999986</v>
       </c>
       <c r="B8">
         <v>36.479999999999997</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>10.674999999999999</v>
       </c>
       <c r="B9">
         <v>41.8</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>12.2</v>
       </c>
       <c r="B10">
         <v>45.599999999999994</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>13.725</v>
       </c>
       <c r="B11">
         <v>47.12</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>15.25</v>
       </c>
       <c r="B12">
         <v>46.359999999999992</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>16.774999999999999</v>
       </c>
       <c r="B13">
         <v>43.32</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>18.299999999999997</v>
       </c>
       <c r="B14">
         <v>38.379999999999995</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>19.824999999999999</v>
       </c>
       <c r="B15">
         <v>34.959999999999994</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>21.349999999999998</v>
       </c>
       <c r="B16">
         <v>32.68</v>

--- a/Images_and_Data/Data/CT8_golf_green_data.xlsx
+++ b/Images_and_Data/Data/CT8_golf_green_data.xlsx
@@ -343,7 +343,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,31 +382,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.9</v>
+        <v>1.9E-3</v>
       </c>
       <c r="C2">
-        <v>6.84</v>
+        <v>6.8399999999999997E-3</v>
       </c>
       <c r="D2">
-        <v>11.399999999999999</v>
+        <v>1.1399999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>15.959999999999999</v>
+        <v>1.5959999999999998E-2</v>
       </c>
       <c r="F2">
-        <v>19.759999999999998</v>
+        <v>1.976E-2</v>
       </c>
       <c r="G2">
-        <v>23.56</v>
+        <v>2.3559999999999998E-2</v>
       </c>
       <c r="H2">
-        <v>27.36</v>
+        <v>2.7359999999999999E-2</v>
       </c>
       <c r="I2">
-        <v>24.32</v>
+        <v>2.4320000000000001E-2</v>
       </c>
       <c r="J2">
-        <v>21.279999999999998</v>
+        <v>2.1279999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -414,31 +414,31 @@
         <v>1.5249999999999999</v>
       </c>
       <c r="B3">
-        <v>6.08</v>
+        <v>6.0800000000000003E-3</v>
       </c>
       <c r="C3">
-        <v>9.1199999999999992</v>
+        <v>9.1199999999999996E-3</v>
       </c>
       <c r="D3">
-        <v>13.68</v>
+        <v>1.3679999999999999E-2</v>
       </c>
       <c r="E3">
-        <v>17.479999999999997</v>
+        <v>1.7479999999999996E-2</v>
       </c>
       <c r="F3">
-        <v>22.04</v>
+        <v>2.2040000000000001E-2</v>
       </c>
       <c r="G3">
-        <v>23.939999999999998</v>
+        <v>2.3939999999999999E-2</v>
       </c>
       <c r="H3">
-        <v>27.36</v>
+        <v>2.7359999999999999E-2</v>
       </c>
       <c r="I3">
-        <v>25.08</v>
+        <v>2.5079999999999998E-2</v>
       </c>
       <c r="J3">
-        <v>22.04</v>
+        <v>2.2040000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -446,31 +446,31 @@
         <v>3.05</v>
       </c>
       <c r="B4">
-        <v>9.879999999999999</v>
+        <v>9.8799999999999999E-3</v>
       </c>
       <c r="C4">
-        <v>13.68</v>
+        <v>1.3679999999999999E-2</v>
       </c>
       <c r="D4">
-        <v>15.959999999999999</v>
+        <v>1.5959999999999998E-2</v>
       </c>
       <c r="E4">
-        <v>19.759999999999998</v>
+        <v>1.976E-2</v>
       </c>
       <c r="F4">
-        <v>23.179999999999996</v>
+        <v>2.3179999999999996E-2</v>
       </c>
       <c r="G4">
-        <v>24.32</v>
+        <v>2.4320000000000001E-2</v>
       </c>
       <c r="H4">
-        <v>27.74</v>
+        <v>2.7739999999999997E-2</v>
       </c>
       <c r="I4">
-        <v>25.08</v>
+        <v>2.5079999999999998E-2</v>
       </c>
       <c r="J4">
-        <v>22.42</v>
+        <v>2.2420000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -478,31 +478,31 @@
         <v>4.5749999999999993</v>
       </c>
       <c r="B5">
-        <v>15.959999999999999</v>
+        <v>1.5959999999999998E-2</v>
       </c>
       <c r="C5">
-        <v>17.479999999999997</v>
+        <v>1.7479999999999996E-2</v>
       </c>
       <c r="D5">
-        <v>19.759999999999998</v>
+        <v>1.976E-2</v>
       </c>
       <c r="E5">
-        <v>22.04</v>
+        <v>2.2040000000000001E-2</v>
       </c>
       <c r="F5">
-        <v>23.56</v>
+        <v>2.3559999999999998E-2</v>
       </c>
       <c r="G5">
-        <v>24.7</v>
+        <v>2.47E-2</v>
       </c>
       <c r="H5">
-        <v>28.12</v>
+        <v>2.8120000000000003E-2</v>
       </c>
       <c r="I5">
-        <v>25.46</v>
+        <v>2.546E-2</v>
       </c>
       <c r="J5">
-        <v>22.799999999999997</v>
+        <v>2.2799999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -510,31 +510,31 @@
         <v>6.1</v>
       </c>
       <c r="B6">
-        <v>22.42</v>
+        <v>2.2420000000000002E-2</v>
       </c>
       <c r="C6">
-        <v>23.179999999999996</v>
+        <v>2.3179999999999996E-2</v>
       </c>
       <c r="D6">
-        <v>23.56</v>
+        <v>2.3559999999999998E-2</v>
       </c>
       <c r="E6">
-        <v>24.32</v>
+        <v>2.4320000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>25.08</v>
+        <v>2.5079999999999998E-2</v>
       </c>
       <c r="G6">
-        <v>25.84</v>
+        <v>2.5840000000000002E-2</v>
       </c>
       <c r="H6">
-        <v>27.74</v>
+        <v>2.7739999999999997E-2</v>
       </c>
       <c r="I6">
-        <v>25.08</v>
+        <v>2.5079999999999998E-2</v>
       </c>
       <c r="J6">
-        <v>22.799999999999997</v>
+        <v>2.2799999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -542,31 +542,31 @@
         <v>7.625</v>
       </c>
       <c r="B7">
-        <v>28.88</v>
+        <v>2.8879999999999999E-2</v>
       </c>
       <c r="C7">
-        <v>29.639999999999997</v>
+        <v>2.9639999999999996E-2</v>
       </c>
       <c r="D7">
-        <v>28.88</v>
+        <v>2.8879999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>28.12</v>
+        <v>2.8120000000000003E-2</v>
       </c>
       <c r="F7">
-        <v>27.36</v>
+        <v>2.7359999999999999E-2</v>
       </c>
       <c r="G7">
-        <v>26.599999999999998</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="H7">
-        <v>27.36</v>
+        <v>2.7359999999999999E-2</v>
       </c>
       <c r="I7">
-        <v>25.08</v>
+        <v>2.5079999999999998E-2</v>
       </c>
       <c r="J7">
-        <v>23.179999999999996</v>
+        <v>2.3179999999999996E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -574,31 +574,31 @@
         <v>9.1499999999999986</v>
       </c>
       <c r="B8">
-        <v>36.479999999999997</v>
+        <v>3.6479999999999999E-2</v>
       </c>
       <c r="C8">
-        <v>35.340000000000003</v>
+        <v>3.5340000000000003E-2</v>
       </c>
       <c r="D8">
-        <v>33.44</v>
+        <v>3.3439999999999998E-2</v>
       </c>
       <c r="E8">
-        <v>31.540000000000003</v>
+        <v>3.1540000000000006E-2</v>
       </c>
       <c r="F8">
-        <v>29.639999999999997</v>
+        <v>2.9639999999999996E-2</v>
       </c>
       <c r="G8">
-        <v>28.88</v>
+        <v>2.8879999999999999E-2</v>
       </c>
       <c r="H8">
-        <v>26.979999999999997</v>
+        <v>2.6979999999999997E-2</v>
       </c>
       <c r="I8">
-        <v>24.7</v>
+        <v>2.47E-2</v>
       </c>
       <c r="J8">
-        <v>22.42</v>
+        <v>2.2420000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -606,31 +606,31 @@
         <v>10.674999999999999</v>
       </c>
       <c r="B9">
-        <v>41.8</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="C9">
-        <v>39.519999999999996</v>
+        <v>3.952E-2</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E9">
-        <v>35.72</v>
+        <v>3.5720000000000002E-2</v>
       </c>
       <c r="F9">
-        <v>31.919999999999998</v>
+        <v>3.1919999999999997E-2</v>
       </c>
       <c r="G9">
-        <v>30.02</v>
+        <v>3.0020000000000002E-2</v>
       </c>
       <c r="H9">
-        <v>26.599999999999998</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="I9">
-        <v>23.56</v>
+        <v>2.3559999999999998E-2</v>
       </c>
       <c r="J9">
-        <v>20.52</v>
+        <v>2.052E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -638,31 +638,31 @@
         <v>12.2</v>
       </c>
       <c r="B10">
-        <v>45.599999999999994</v>
+        <v>4.5599999999999995E-2</v>
       </c>
       <c r="C10">
-        <v>44.84</v>
+        <v>4.4840000000000005E-2</v>
       </c>
       <c r="D10">
-        <v>40.279999999999994</v>
+        <v>4.0279999999999996E-2</v>
       </c>
       <c r="E10">
-        <v>37.24</v>
+        <v>3.7240000000000002E-2</v>
       </c>
       <c r="F10">
-        <v>33.82</v>
+        <v>3.3820000000000003E-2</v>
       </c>
       <c r="G10">
-        <v>30.779999999999998</v>
+        <v>3.0779999999999998E-2</v>
       </c>
       <c r="H10">
-        <v>28.12</v>
+        <v>2.8120000000000003E-2</v>
       </c>
       <c r="I10">
-        <v>24.32</v>
+        <v>2.4320000000000001E-2</v>
       </c>
       <c r="J10">
-        <v>19.759999999999998</v>
+        <v>1.976E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -670,31 +670,31 @@
         <v>13.725</v>
       </c>
       <c r="B11">
-        <v>47.12</v>
+        <v>4.7119999999999995E-2</v>
       </c>
       <c r="C11">
-        <v>45.98</v>
+        <v>4.598E-2</v>
       </c>
       <c r="D11">
-        <v>42.559999999999995</v>
+        <v>4.2559999999999994E-2</v>
       </c>
       <c r="E11">
-        <v>38</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F11">
-        <v>34.959999999999994</v>
+        <v>3.4959999999999991E-2</v>
       </c>
       <c r="G11">
-        <v>31.159999999999997</v>
+        <v>3.1159999999999997E-2</v>
       </c>
       <c r="H11">
-        <v>28.12</v>
+        <v>2.8120000000000003E-2</v>
       </c>
       <c r="I11">
-        <v>23.939999999999998</v>
+        <v>2.3939999999999999E-2</v>
       </c>
       <c r="J11">
-        <v>20.52</v>
+        <v>2.052E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -702,31 +702,31 @@
         <v>15.25</v>
       </c>
       <c r="B12">
-        <v>46.359999999999992</v>
+        <v>4.6359999999999991E-2</v>
       </c>
       <c r="C12">
-        <v>45.22</v>
+        <v>4.5220000000000003E-2</v>
       </c>
       <c r="D12">
-        <v>42.18</v>
+        <v>4.2180000000000002E-2</v>
       </c>
       <c r="E12">
-        <v>38.379999999999995</v>
+        <v>3.8379999999999997E-2</v>
       </c>
       <c r="F12">
-        <v>34.959999999999994</v>
+        <v>3.4959999999999991E-2</v>
       </c>
       <c r="G12">
-        <v>30.4</v>
+        <v>3.04E-2</v>
       </c>
       <c r="H12">
-        <v>28.12</v>
+        <v>2.8120000000000003E-2</v>
       </c>
       <c r="I12">
-        <v>24.32</v>
+        <v>2.4320000000000001E-2</v>
       </c>
       <c r="J12">
-        <v>20.9</v>
+        <v>2.0899999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -734,31 +734,31 @@
         <v>16.774999999999999</v>
       </c>
       <c r="B13">
-        <v>43.32</v>
+        <v>4.3320000000000004E-2</v>
       </c>
       <c r="C13">
-        <v>42.94</v>
+        <v>4.2939999999999999E-2</v>
       </c>
       <c r="D13">
-        <v>40.279999999999994</v>
+        <v>4.0279999999999996E-2</v>
       </c>
       <c r="E13">
-        <v>37.619999999999997</v>
+        <v>3.7620000000000001E-2</v>
       </c>
       <c r="F13">
-        <v>34.58</v>
+        <v>3.458E-2</v>
       </c>
       <c r="G13">
-        <v>30.779999999999998</v>
+        <v>3.0779999999999998E-2</v>
       </c>
       <c r="H13">
-        <v>28.5</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="I13">
-        <v>24.7</v>
+        <v>2.47E-2</v>
       </c>
       <c r="J13">
-        <v>22.04</v>
+        <v>2.2040000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -766,31 +766,31 @@
         <v>18.299999999999997</v>
       </c>
       <c r="B14">
-        <v>38.379999999999995</v>
+        <v>3.8379999999999997E-2</v>
       </c>
       <c r="C14">
-        <v>39.14</v>
+        <v>3.9140000000000001E-2</v>
       </c>
       <c r="D14">
-        <v>39.14</v>
+        <v>3.9140000000000001E-2</v>
       </c>
       <c r="E14">
-        <v>37.24</v>
+        <v>3.7240000000000002E-2</v>
       </c>
       <c r="F14">
-        <v>34.199999999999996</v>
+        <v>3.4199999999999994E-2</v>
       </c>
       <c r="G14">
-        <v>31.159999999999997</v>
+        <v>3.1159999999999997E-2</v>
       </c>
       <c r="H14">
-        <v>28.88</v>
+        <v>2.8879999999999999E-2</v>
       </c>
       <c r="I14">
-        <v>25.84</v>
+        <v>2.5840000000000002E-2</v>
       </c>
       <c r="J14">
-        <v>23.56</v>
+        <v>2.3559999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -798,31 +798,31 @@
         <v>19.824999999999999</v>
       </c>
       <c r="B15">
-        <v>34.959999999999994</v>
+        <v>3.4959999999999991E-2</v>
       </c>
       <c r="C15">
-        <v>38.379999999999995</v>
+        <v>3.8379999999999997E-2</v>
       </c>
       <c r="D15">
-        <v>38.379999999999995</v>
+        <v>3.8379999999999997E-2</v>
       </c>
       <c r="E15">
-        <v>36.859999999999992</v>
+        <v>3.685999999999999E-2</v>
       </c>
       <c r="F15">
-        <v>34.959999999999994</v>
+        <v>3.4959999999999991E-2</v>
       </c>
       <c r="G15">
-        <v>31.919999999999998</v>
+        <v>3.1919999999999997E-2</v>
       </c>
       <c r="H15">
-        <v>29.639999999999997</v>
+        <v>2.9639999999999996E-2</v>
       </c>
       <c r="I15">
-        <v>28.12</v>
+        <v>2.8120000000000003E-2</v>
       </c>
       <c r="J15">
-        <v>25.84</v>
+        <v>2.5840000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -830,31 +830,31 @@
         <v>21.349999999999998</v>
       </c>
       <c r="B16">
-        <v>32.68</v>
+        <v>3.2680000000000001E-2</v>
       </c>
       <c r="C16">
-        <v>36.859999999999992</v>
+        <v>3.685999999999999E-2</v>
       </c>
       <c r="D16">
-        <v>38.379999999999995</v>
+        <v>3.8379999999999997E-2</v>
       </c>
       <c r="E16">
-        <v>38</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F16">
-        <v>36.859999999999992</v>
+        <v>3.685999999999999E-2</v>
       </c>
       <c r="G16">
-        <v>34.58</v>
+        <v>3.458E-2</v>
       </c>
       <c r="H16">
-        <v>31.540000000000003</v>
+        <v>3.1540000000000006E-2</v>
       </c>
       <c r="I16">
-        <v>29.639999999999997</v>
+        <v>2.9639999999999996E-2</v>
       </c>
       <c r="J16">
-        <v>28.88</v>
+        <v>2.8879999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Data/CT8_golf_green_data.xlsx
+++ b/Images_and_Data/Data/CT8_golf_green_data.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,8 +338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,31 +378,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.9E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C2">
-        <v>6.8399999999999997E-3</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="D2">
-        <v>1.1399999999999999E-2</v>
+        <v>0.11399999999999999</v>
       </c>
       <c r="E2">
-        <v>1.5959999999999998E-2</v>
+        <v>0.15959999999999999</v>
       </c>
       <c r="F2">
-        <v>1.976E-2</v>
+        <v>0.1976</v>
       </c>
       <c r="G2">
-        <v>2.3559999999999998E-2</v>
+        <v>0.23559999999999998</v>
       </c>
       <c r="H2">
-        <v>2.7359999999999999E-2</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="I2">
-        <v>2.4320000000000001E-2</v>
+        <v>0.24320000000000003</v>
       </c>
       <c r="J2">
-        <v>2.1279999999999997E-2</v>
+        <v>0.21279999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -414,31 +410,31 @@
         <v>1.5249999999999999</v>
       </c>
       <c r="B3">
-        <v>6.0800000000000003E-3</v>
+        <v>6.0800000000000007E-2</v>
       </c>
       <c r="C3">
-        <v>9.1199999999999996E-3</v>
+        <v>9.1200000000000003E-2</v>
       </c>
       <c r="D3">
-        <v>1.3679999999999999E-2</v>
+        <v>0.1368</v>
       </c>
       <c r="E3">
-        <v>1.7479999999999996E-2</v>
+        <v>0.17479999999999996</v>
       </c>
       <c r="F3">
-        <v>2.2040000000000001E-2</v>
+        <v>0.22040000000000001</v>
       </c>
       <c r="G3">
-        <v>2.3939999999999999E-2</v>
+        <v>0.2394</v>
       </c>
       <c r="H3">
-        <v>2.7359999999999999E-2</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="I3">
-        <v>2.5079999999999998E-2</v>
+        <v>0.25079999999999997</v>
       </c>
       <c r="J3">
-        <v>2.2040000000000001E-2</v>
+        <v>0.22040000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -446,31 +442,31 @@
         <v>3.05</v>
       </c>
       <c r="B4">
-        <v>9.8799999999999999E-3</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="C4">
-        <v>1.3679999999999999E-2</v>
+        <v>0.1368</v>
       </c>
       <c r="D4">
-        <v>1.5959999999999998E-2</v>
+        <v>0.15959999999999999</v>
       </c>
       <c r="E4">
-        <v>1.976E-2</v>
+        <v>0.1976</v>
       </c>
       <c r="F4">
-        <v>2.3179999999999996E-2</v>
+        <v>0.23179999999999995</v>
       </c>
       <c r="G4">
-        <v>2.4320000000000001E-2</v>
+        <v>0.24320000000000003</v>
       </c>
       <c r="H4">
-        <v>2.7739999999999997E-2</v>
+        <v>0.27739999999999998</v>
       </c>
       <c r="I4">
-        <v>2.5079999999999998E-2</v>
+        <v>0.25079999999999997</v>
       </c>
       <c r="J4">
-        <v>2.2420000000000002E-2</v>
+        <v>0.22420000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -478,31 +474,31 @@
         <v>4.5749999999999993</v>
       </c>
       <c r="B5">
-        <v>1.5959999999999998E-2</v>
+        <v>0.15959999999999999</v>
       </c>
       <c r="C5">
-        <v>1.7479999999999996E-2</v>
+        <v>0.17479999999999996</v>
       </c>
       <c r="D5">
-        <v>1.976E-2</v>
+        <v>0.1976</v>
       </c>
       <c r="E5">
-        <v>2.2040000000000001E-2</v>
+        <v>0.22040000000000001</v>
       </c>
       <c r="F5">
-        <v>2.3559999999999998E-2</v>
+        <v>0.23559999999999998</v>
       </c>
       <c r="G5">
-        <v>2.47E-2</v>
+        <v>0.247</v>
       </c>
       <c r="H5">
-        <v>2.8120000000000003E-2</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="I5">
-        <v>2.546E-2</v>
+        <v>0.25459999999999999</v>
       </c>
       <c r="J5">
-        <v>2.2799999999999997E-2</v>
+        <v>0.22799999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -510,31 +506,31 @@
         <v>6.1</v>
       </c>
       <c r="B6">
-        <v>2.2420000000000002E-2</v>
+        <v>0.22420000000000001</v>
       </c>
       <c r="C6">
-        <v>2.3179999999999996E-2</v>
+        <v>0.23179999999999995</v>
       </c>
       <c r="D6">
-        <v>2.3559999999999998E-2</v>
+        <v>0.23559999999999998</v>
       </c>
       <c r="E6">
-        <v>2.4320000000000001E-2</v>
+        <v>0.24320000000000003</v>
       </c>
       <c r="F6">
-        <v>2.5079999999999998E-2</v>
+        <v>0.25079999999999997</v>
       </c>
       <c r="G6">
-        <v>2.5840000000000002E-2</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="H6">
-        <v>2.7739999999999997E-2</v>
+        <v>0.27739999999999998</v>
       </c>
       <c r="I6">
-        <v>2.5079999999999998E-2</v>
+        <v>0.25079999999999997</v>
       </c>
       <c r="J6">
-        <v>2.2799999999999997E-2</v>
+        <v>0.22799999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -542,31 +538,31 @@
         <v>7.625</v>
       </c>
       <c r="B7">
-        <v>2.8879999999999999E-2</v>
+        <v>0.2888</v>
       </c>
       <c r="C7">
-        <v>2.9639999999999996E-2</v>
+        <v>0.29639999999999994</v>
       </c>
       <c r="D7">
-        <v>2.8879999999999999E-2</v>
+        <v>0.2888</v>
       </c>
       <c r="E7">
-        <v>2.8120000000000003E-2</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="F7">
-        <v>2.7359999999999999E-2</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="G7">
-        <v>2.6599999999999999E-2</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="H7">
-        <v>2.7359999999999999E-2</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="I7">
-        <v>2.5079999999999998E-2</v>
+        <v>0.25079999999999997</v>
       </c>
       <c r="J7">
-        <v>2.3179999999999996E-2</v>
+        <v>0.23179999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -574,31 +570,31 @@
         <v>9.1499999999999986</v>
       </c>
       <c r="B8">
-        <v>3.6479999999999999E-2</v>
+        <v>0.36480000000000001</v>
       </c>
       <c r="C8">
-        <v>3.5340000000000003E-2</v>
+        <v>0.35340000000000005</v>
       </c>
       <c r="D8">
-        <v>3.3439999999999998E-2</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="E8">
-        <v>3.1540000000000006E-2</v>
+        <v>0.31540000000000007</v>
       </c>
       <c r="F8">
-        <v>2.9639999999999996E-2</v>
+        <v>0.29639999999999994</v>
       </c>
       <c r="G8">
-        <v>2.8879999999999999E-2</v>
+        <v>0.2888</v>
       </c>
       <c r="H8">
-        <v>2.6979999999999997E-2</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="I8">
-        <v>2.47E-2</v>
+        <v>0.247</v>
       </c>
       <c r="J8">
-        <v>2.2420000000000002E-2</v>
+        <v>0.22420000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -606,31 +602,31 @@
         <v>10.674999999999999</v>
       </c>
       <c r="B9">
-        <v>4.1799999999999997E-2</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="C9">
-        <v>3.952E-2</v>
+        <v>0.3952</v>
       </c>
       <c r="D9">
-        <v>3.7999999999999999E-2</v>
+        <v>0.38</v>
       </c>
       <c r="E9">
-        <v>3.5720000000000002E-2</v>
+        <v>0.35720000000000002</v>
       </c>
       <c r="F9">
-        <v>3.1919999999999997E-2</v>
+        <v>0.31919999999999998</v>
       </c>
       <c r="G9">
-        <v>3.0020000000000002E-2</v>
+        <v>0.30020000000000002</v>
       </c>
       <c r="H9">
-        <v>2.6599999999999999E-2</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="I9">
-        <v>2.3559999999999998E-2</v>
+        <v>0.23559999999999998</v>
       </c>
       <c r="J9">
-        <v>2.052E-2</v>
+        <v>0.20519999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -638,31 +634,31 @@
         <v>12.2</v>
       </c>
       <c r="B10">
-        <v>4.5599999999999995E-2</v>
+        <v>0.45599999999999996</v>
       </c>
       <c r="C10">
-        <v>4.4840000000000005E-2</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="D10">
-        <v>4.0279999999999996E-2</v>
+        <v>0.40279999999999994</v>
       </c>
       <c r="E10">
-        <v>3.7240000000000002E-2</v>
+        <v>0.37240000000000001</v>
       </c>
       <c r="F10">
-        <v>3.3820000000000003E-2</v>
+        <v>0.33820000000000006</v>
       </c>
       <c r="G10">
-        <v>3.0779999999999998E-2</v>
+        <v>0.30779999999999996</v>
       </c>
       <c r="H10">
-        <v>2.8120000000000003E-2</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="I10">
-        <v>2.4320000000000001E-2</v>
+        <v>0.24320000000000003</v>
       </c>
       <c r="J10">
-        <v>1.976E-2</v>
+        <v>0.1976</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -670,31 +666,31 @@
         <v>13.725</v>
       </c>
       <c r="B11">
-        <v>4.7119999999999995E-2</v>
+        <v>0.47119999999999995</v>
       </c>
       <c r="C11">
-        <v>4.598E-2</v>
+        <v>0.45979999999999999</v>
       </c>
       <c r="D11">
-        <v>4.2559999999999994E-2</v>
+        <v>0.42559999999999992</v>
       </c>
       <c r="E11">
-        <v>3.7999999999999999E-2</v>
+        <v>0.38</v>
       </c>
       <c r="F11">
-        <v>3.4959999999999991E-2</v>
+        <v>0.34959999999999991</v>
       </c>
       <c r="G11">
-        <v>3.1159999999999997E-2</v>
+        <v>0.31159999999999999</v>
       </c>
       <c r="H11">
-        <v>2.8120000000000003E-2</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="I11">
-        <v>2.3939999999999999E-2</v>
+        <v>0.2394</v>
       </c>
       <c r="J11">
-        <v>2.052E-2</v>
+        <v>0.20519999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -702,31 +698,31 @@
         <v>15.25</v>
       </c>
       <c r="B12">
-        <v>4.6359999999999991E-2</v>
+        <v>0.4635999999999999</v>
       </c>
       <c r="C12">
-        <v>4.5220000000000003E-2</v>
+        <v>0.45220000000000005</v>
       </c>
       <c r="D12">
-        <v>4.2180000000000002E-2</v>
+        <v>0.42180000000000001</v>
       </c>
       <c r="E12">
-        <v>3.8379999999999997E-2</v>
+        <v>0.38379999999999997</v>
       </c>
       <c r="F12">
-        <v>3.4959999999999991E-2</v>
+        <v>0.34959999999999991</v>
       </c>
       <c r="G12">
-        <v>3.04E-2</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="H12">
-        <v>2.8120000000000003E-2</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="I12">
-        <v>2.4320000000000001E-2</v>
+        <v>0.24320000000000003</v>
       </c>
       <c r="J12">
-        <v>2.0899999999999998E-2</v>
+        <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -734,31 +730,31 @@
         <v>16.774999999999999</v>
       </c>
       <c r="B13">
-        <v>4.3320000000000004E-2</v>
+        <v>0.43320000000000003</v>
       </c>
       <c r="C13">
-        <v>4.2939999999999999E-2</v>
+        <v>0.4294</v>
       </c>
       <c r="D13">
-        <v>4.0279999999999996E-2</v>
+        <v>0.40279999999999994</v>
       </c>
       <c r="E13">
-        <v>3.7620000000000001E-2</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="F13">
-        <v>3.458E-2</v>
+        <v>0.3458</v>
       </c>
       <c r="G13">
-        <v>3.0779999999999998E-2</v>
+        <v>0.30779999999999996</v>
       </c>
       <c r="H13">
-        <v>2.8500000000000001E-2</v>
+        <v>0.28500000000000003</v>
       </c>
       <c r="I13">
-        <v>2.47E-2</v>
+        <v>0.247</v>
       </c>
       <c r="J13">
-        <v>2.2040000000000001E-2</v>
+        <v>0.22040000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -766,31 +762,31 @@
         <v>18.299999999999997</v>
       </c>
       <c r="B14">
-        <v>3.8379999999999997E-2</v>
+        <v>0.38379999999999997</v>
       </c>
       <c r="C14">
-        <v>3.9140000000000001E-2</v>
+        <v>0.39140000000000003</v>
       </c>
       <c r="D14">
-        <v>3.9140000000000001E-2</v>
+        <v>0.39140000000000003</v>
       </c>
       <c r="E14">
-        <v>3.7240000000000002E-2</v>
+        <v>0.37240000000000001</v>
       </c>
       <c r="F14">
-        <v>3.4199999999999994E-2</v>
+        <v>0.34199999999999997</v>
       </c>
       <c r="G14">
-        <v>3.1159999999999997E-2</v>
+        <v>0.31159999999999999</v>
       </c>
       <c r="H14">
-        <v>2.8879999999999999E-2</v>
+        <v>0.2888</v>
       </c>
       <c r="I14">
-        <v>2.5840000000000002E-2</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="J14">
-        <v>2.3559999999999998E-2</v>
+        <v>0.23559999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -798,31 +794,31 @@
         <v>19.824999999999999</v>
       </c>
       <c r="B15">
-        <v>3.4959999999999991E-2</v>
+        <v>0.34959999999999991</v>
       </c>
       <c r="C15">
-        <v>3.8379999999999997E-2</v>
+        <v>0.38379999999999997</v>
       </c>
       <c r="D15">
-        <v>3.8379999999999997E-2</v>
+        <v>0.38379999999999997</v>
       </c>
       <c r="E15">
-        <v>3.685999999999999E-2</v>
+        <v>0.36859999999999993</v>
       </c>
       <c r="F15">
-        <v>3.4959999999999991E-2</v>
+        <v>0.34959999999999991</v>
       </c>
       <c r="G15">
-        <v>3.1919999999999997E-2</v>
+        <v>0.31919999999999998</v>
       </c>
       <c r="H15">
-        <v>2.9639999999999996E-2</v>
+        <v>0.29639999999999994</v>
       </c>
       <c r="I15">
-        <v>2.8120000000000003E-2</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="J15">
-        <v>2.5840000000000002E-2</v>
+        <v>0.25840000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -830,31 +826,31 @@
         <v>21.349999999999998</v>
       </c>
       <c r="B16">
-        <v>3.2680000000000001E-2</v>
+        <v>0.32679999999999998</v>
       </c>
       <c r="C16">
-        <v>3.685999999999999E-2</v>
+        <v>0.36859999999999993</v>
       </c>
       <c r="D16">
-        <v>3.8379999999999997E-2</v>
+        <v>0.38379999999999997</v>
       </c>
       <c r="E16">
-        <v>3.7999999999999999E-2</v>
+        <v>0.38</v>
       </c>
       <c r="F16">
-        <v>3.685999999999999E-2</v>
+        <v>0.36859999999999993</v>
       </c>
       <c r="G16">
-        <v>3.458E-2</v>
+        <v>0.3458</v>
       </c>
       <c r="H16">
-        <v>3.1540000000000006E-2</v>
+        <v>0.31540000000000007</v>
       </c>
       <c r="I16">
-        <v>2.9639999999999996E-2</v>
+        <v>0.29639999999999994</v>
       </c>
       <c r="J16">
-        <v>2.8879999999999999E-2</v>
+        <v>0.2888</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Data/CT8_golf_green_data.xlsx
+++ b/Images_and_Data/Data/CT8_golf_green_data.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Teaching\Phys_200\Challenge_Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Teaching\Phys_200\Challenge_Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F749A0A0-E139-464F-9F8F-A5137E69022B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="2025" yWindow="630" windowWidth="24420" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,11 +347,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,31 +390,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.9E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>6.8400000000000002E-2</v>
+        <v>0.1368</v>
       </c>
       <c r="D2">
-        <v>0.11399999999999999</v>
+        <v>0.22799999999999998</v>
       </c>
       <c r="E2">
-        <v>0.15959999999999999</v>
+        <v>0.31919999999999998</v>
       </c>
       <c r="F2">
-        <v>0.1976</v>
+        <v>0.3952</v>
       </c>
       <c r="G2">
-        <v>0.23559999999999998</v>
+        <v>0.47119999999999995</v>
       </c>
       <c r="H2">
-        <v>0.27360000000000001</v>
+        <v>0.54720000000000002</v>
       </c>
       <c r="I2">
-        <v>0.24320000000000003</v>
+        <v>0.48640000000000005</v>
       </c>
       <c r="J2">
-        <v>0.21279999999999996</v>
+        <v>0.42559999999999992</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -410,31 +422,31 @@
         <v>1.5249999999999999</v>
       </c>
       <c r="B3">
-        <v>6.0800000000000007E-2</v>
+        <v>0.12160000000000001</v>
       </c>
       <c r="C3">
-        <v>9.1200000000000003E-2</v>
+        <v>0.18240000000000001</v>
       </c>
       <c r="D3">
-        <v>0.1368</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="E3">
-        <v>0.17479999999999996</v>
+        <v>0.34959999999999991</v>
       </c>
       <c r="F3">
-        <v>0.22040000000000001</v>
+        <v>0.44080000000000003</v>
       </c>
       <c r="G3">
-        <v>0.2394</v>
+        <v>0.4788</v>
       </c>
       <c r="H3">
-        <v>0.27360000000000001</v>
+        <v>0.54720000000000002</v>
       </c>
       <c r="I3">
-        <v>0.25079999999999997</v>
+        <v>0.50159999999999993</v>
       </c>
       <c r="J3">
-        <v>0.22040000000000001</v>
+        <v>0.44080000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -442,31 +454,31 @@
         <v>3.05</v>
       </c>
       <c r="B4">
-        <v>9.8799999999999999E-2</v>
+        <v>0.1976</v>
       </c>
       <c r="C4">
-        <v>0.1368</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="D4">
-        <v>0.15959999999999999</v>
+        <v>0.31919999999999998</v>
       </c>
       <c r="E4">
-        <v>0.1976</v>
+        <v>0.3952</v>
       </c>
       <c r="F4">
-        <v>0.23179999999999995</v>
+        <v>0.4635999999999999</v>
       </c>
       <c r="G4">
-        <v>0.24320000000000003</v>
+        <v>0.48640000000000005</v>
       </c>
       <c r="H4">
-        <v>0.27739999999999998</v>
+        <v>0.55479999999999996</v>
       </c>
       <c r="I4">
-        <v>0.25079999999999997</v>
+        <v>0.50159999999999993</v>
       </c>
       <c r="J4">
-        <v>0.22420000000000001</v>
+        <v>0.44840000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -474,31 +486,31 @@
         <v>4.5749999999999993</v>
       </c>
       <c r="B5">
-        <v>0.15959999999999999</v>
+        <v>0.31919999999999998</v>
       </c>
       <c r="C5">
-        <v>0.17479999999999996</v>
+        <v>0.34959999999999991</v>
       </c>
       <c r="D5">
-        <v>0.1976</v>
+        <v>0.3952</v>
       </c>
       <c r="E5">
-        <v>0.22040000000000001</v>
+        <v>0.44080000000000003</v>
       </c>
       <c r="F5">
-        <v>0.23559999999999998</v>
+        <v>0.47119999999999995</v>
       </c>
       <c r="G5">
-        <v>0.247</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="H5">
-        <v>0.28120000000000001</v>
+        <v>0.56240000000000001</v>
       </c>
       <c r="I5">
-        <v>0.25459999999999999</v>
+        <v>0.50919999999999999</v>
       </c>
       <c r="J5">
-        <v>0.22799999999999998</v>
+        <v>0.45599999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -506,31 +518,31 @@
         <v>6.1</v>
       </c>
       <c r="B6">
-        <v>0.22420000000000001</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="C6">
-        <v>0.23179999999999995</v>
+        <v>0.4635999999999999</v>
       </c>
       <c r="D6">
-        <v>0.23559999999999998</v>
+        <v>0.47119999999999995</v>
       </c>
       <c r="E6">
-        <v>0.24320000000000003</v>
+        <v>0.48640000000000005</v>
       </c>
       <c r="F6">
-        <v>0.25079999999999997</v>
+        <v>0.50159999999999993</v>
       </c>
       <c r="G6">
-        <v>0.25840000000000002</v>
+        <v>0.51680000000000004</v>
       </c>
       <c r="H6">
-        <v>0.27739999999999998</v>
+        <v>0.55479999999999996</v>
       </c>
       <c r="I6">
-        <v>0.25079999999999997</v>
+        <v>0.50159999999999993</v>
       </c>
       <c r="J6">
-        <v>0.22799999999999998</v>
+        <v>0.45599999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -538,31 +550,31 @@
         <v>7.625</v>
       </c>
       <c r="B7">
-        <v>0.2888</v>
+        <v>0.5776</v>
       </c>
       <c r="C7">
-        <v>0.29639999999999994</v>
+        <v>0.59279999999999988</v>
       </c>
       <c r="D7">
-        <v>0.2888</v>
+        <v>0.5776</v>
       </c>
       <c r="E7">
-        <v>0.28120000000000001</v>
+        <v>0.56240000000000001</v>
       </c>
       <c r="F7">
-        <v>0.27360000000000001</v>
+        <v>0.54720000000000002</v>
       </c>
       <c r="G7">
-        <v>0.26600000000000001</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="H7">
-        <v>0.27360000000000001</v>
+        <v>0.54720000000000002</v>
       </c>
       <c r="I7">
-        <v>0.25079999999999997</v>
+        <v>0.50159999999999993</v>
       </c>
       <c r="J7">
-        <v>0.23179999999999995</v>
+        <v>0.4635999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -570,31 +582,31 @@
         <v>9.1499999999999986</v>
       </c>
       <c r="B8">
-        <v>0.36480000000000001</v>
+        <v>0.72960000000000003</v>
       </c>
       <c r="C8">
-        <v>0.35340000000000005</v>
+        <v>0.70680000000000009</v>
       </c>
       <c r="D8">
-        <v>0.33439999999999998</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="E8">
-        <v>0.31540000000000007</v>
+        <v>0.63080000000000014</v>
       </c>
       <c r="F8">
-        <v>0.29639999999999994</v>
+        <v>0.59279999999999988</v>
       </c>
       <c r="G8">
-        <v>0.2888</v>
+        <v>0.5776</v>
       </c>
       <c r="H8">
-        <v>0.26979999999999998</v>
+        <v>0.53959999999999997</v>
       </c>
       <c r="I8">
-        <v>0.247</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="J8">
-        <v>0.22420000000000001</v>
+        <v>0.44840000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -602,31 +614,31 @@
         <v>10.674999999999999</v>
       </c>
       <c r="B9">
-        <v>0.41799999999999998</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="C9">
-        <v>0.3952</v>
+        <v>0.79039999999999999</v>
       </c>
       <c r="D9">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="E9">
-        <v>0.35720000000000002</v>
+        <v>0.71440000000000003</v>
       </c>
       <c r="F9">
-        <v>0.31919999999999998</v>
+        <v>0.63839999999999997</v>
       </c>
       <c r="G9">
-        <v>0.30020000000000002</v>
+        <v>0.60040000000000004</v>
       </c>
       <c r="H9">
-        <v>0.26600000000000001</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="I9">
-        <v>0.23559999999999998</v>
+        <v>0.47119999999999995</v>
       </c>
       <c r="J9">
-        <v>0.20519999999999999</v>
+        <v>0.41039999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -634,31 +646,31 @@
         <v>12.2</v>
       </c>
       <c r="B10">
-        <v>0.45599999999999996</v>
+        <v>0.91199999999999992</v>
       </c>
       <c r="C10">
-        <v>0.44840000000000002</v>
+        <v>0.89680000000000004</v>
       </c>
       <c r="D10">
-        <v>0.40279999999999994</v>
+        <v>0.80559999999999987</v>
       </c>
       <c r="E10">
-        <v>0.37240000000000001</v>
+        <v>0.74480000000000002</v>
       </c>
       <c r="F10">
-        <v>0.33820000000000006</v>
+        <v>0.67640000000000011</v>
       </c>
       <c r="G10">
-        <v>0.30779999999999996</v>
+        <v>0.61559999999999993</v>
       </c>
       <c r="H10">
-        <v>0.28120000000000001</v>
+        <v>0.56240000000000001</v>
       </c>
       <c r="I10">
-        <v>0.24320000000000003</v>
+        <v>0.48640000000000005</v>
       </c>
       <c r="J10">
-        <v>0.1976</v>
+        <v>0.3952</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -666,31 +678,31 @@
         <v>13.725</v>
       </c>
       <c r="B11">
-        <v>0.47119999999999995</v>
+        <v>0.9423999999999999</v>
       </c>
       <c r="C11">
-        <v>0.45979999999999999</v>
+        <v>0.91959999999999997</v>
       </c>
       <c r="D11">
-        <v>0.42559999999999992</v>
+        <v>0.85119999999999985</v>
       </c>
       <c r="E11">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="F11">
-        <v>0.34959999999999991</v>
+        <v>0.69919999999999982</v>
       </c>
       <c r="G11">
-        <v>0.31159999999999999</v>
+        <v>0.62319999999999998</v>
       </c>
       <c r="H11">
-        <v>0.28120000000000001</v>
+        <v>0.56240000000000001</v>
       </c>
       <c r="I11">
-        <v>0.2394</v>
+        <v>0.4788</v>
       </c>
       <c r="J11">
-        <v>0.20519999999999999</v>
+        <v>0.41039999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -698,31 +710,31 @@
         <v>15.25</v>
       </c>
       <c r="B12">
-        <v>0.4635999999999999</v>
+        <v>0.9271999999999998</v>
       </c>
       <c r="C12">
-        <v>0.45220000000000005</v>
+        <v>0.90440000000000009</v>
       </c>
       <c r="D12">
-        <v>0.42180000000000001</v>
+        <v>0.84360000000000002</v>
       </c>
       <c r="E12">
-        <v>0.38379999999999997</v>
+        <v>0.76759999999999995</v>
       </c>
       <c r="F12">
-        <v>0.34959999999999991</v>
+        <v>0.69919999999999982</v>
       </c>
       <c r="G12">
-        <v>0.30399999999999999</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="H12">
-        <v>0.28120000000000001</v>
+        <v>0.56240000000000001</v>
       </c>
       <c r="I12">
-        <v>0.24320000000000003</v>
+        <v>0.48640000000000005</v>
       </c>
       <c r="J12">
-        <v>0.20899999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -730,31 +742,31 @@
         <v>16.774999999999999</v>
       </c>
       <c r="B13">
-        <v>0.43320000000000003</v>
+        <v>0.86640000000000006</v>
       </c>
       <c r="C13">
-        <v>0.4294</v>
+        <v>0.85880000000000001</v>
       </c>
       <c r="D13">
-        <v>0.40279999999999994</v>
+        <v>0.80559999999999987</v>
       </c>
       <c r="E13">
-        <v>0.37619999999999998</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="F13">
-        <v>0.3458</v>
+        <v>0.69159999999999999</v>
       </c>
       <c r="G13">
-        <v>0.30779999999999996</v>
+        <v>0.61559999999999993</v>
       </c>
       <c r="H13">
-        <v>0.28500000000000003</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="I13">
-        <v>0.247</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="J13">
-        <v>0.22040000000000001</v>
+        <v>0.44080000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -762,31 +774,31 @@
         <v>18.299999999999997</v>
       </c>
       <c r="B14">
-        <v>0.38379999999999997</v>
+        <v>0.76759999999999995</v>
       </c>
       <c r="C14">
-        <v>0.39140000000000003</v>
+        <v>0.78280000000000005</v>
       </c>
       <c r="D14">
-        <v>0.39140000000000003</v>
+        <v>0.78280000000000005</v>
       </c>
       <c r="E14">
-        <v>0.37240000000000001</v>
+        <v>0.74480000000000002</v>
       </c>
       <c r="F14">
-        <v>0.34199999999999997</v>
+        <v>0.68399999999999994</v>
       </c>
       <c r="G14">
-        <v>0.31159999999999999</v>
+        <v>0.62319999999999998</v>
       </c>
       <c r="H14">
-        <v>0.2888</v>
+        <v>0.5776</v>
       </c>
       <c r="I14">
-        <v>0.25840000000000002</v>
+        <v>0.51680000000000004</v>
       </c>
       <c r="J14">
-        <v>0.23559999999999998</v>
+        <v>0.47119999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -794,31 +806,31 @@
         <v>19.824999999999999</v>
       </c>
       <c r="B15">
-        <v>0.34959999999999991</v>
+        <v>0.69919999999999982</v>
       </c>
       <c r="C15">
-        <v>0.38379999999999997</v>
+        <v>0.76759999999999995</v>
       </c>
       <c r="D15">
-        <v>0.38379999999999997</v>
+        <v>0.76759999999999995</v>
       </c>
       <c r="E15">
-        <v>0.36859999999999993</v>
+        <v>0.73719999999999986</v>
       </c>
       <c r="F15">
-        <v>0.34959999999999991</v>
+        <v>0.69919999999999982</v>
       </c>
       <c r="G15">
-        <v>0.31919999999999998</v>
+        <v>0.63839999999999997</v>
       </c>
       <c r="H15">
-        <v>0.29639999999999994</v>
+        <v>0.59279999999999988</v>
       </c>
       <c r="I15">
-        <v>0.28120000000000001</v>
+        <v>0.56240000000000001</v>
       </c>
       <c r="J15">
-        <v>0.25840000000000002</v>
+        <v>0.51680000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -826,31 +838,31 @@
         <v>21.349999999999998</v>
       </c>
       <c r="B16">
-        <v>0.32679999999999998</v>
+        <v>0.65359999999999996</v>
       </c>
       <c r="C16">
-        <v>0.36859999999999993</v>
+        <v>0.73719999999999986</v>
       </c>
       <c r="D16">
-        <v>0.38379999999999997</v>
+        <v>0.76759999999999995</v>
       </c>
       <c r="E16">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="F16">
-        <v>0.36859999999999993</v>
+        <v>0.73719999999999986</v>
       </c>
       <c r="G16">
-        <v>0.3458</v>
+        <v>0.69159999999999999</v>
       </c>
       <c r="H16">
-        <v>0.31540000000000007</v>
+        <v>0.63080000000000014</v>
       </c>
       <c r="I16">
-        <v>0.29639999999999994</v>
+        <v>0.59279999999999988</v>
       </c>
       <c r="J16">
-        <v>0.2888</v>
+        <v>0.5776</v>
       </c>
     </row>
   </sheetData>
